--- a/Data/About Herbs/tabs.xlsx
+++ b/Data/About Herbs/tabs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yingxuan/Documents/SUTD/UROP OncoRx/Data/About Herbs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B71253-1878-5546-88C9-44EF8573C872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C252F6-431A-4947-8617-55761DE42C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="31600" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,13 +144,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -180,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -193,6 +205,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,25 +652,25 @@
       <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="P2" t="s">
@@ -713,7 +726,7 @@
       <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J3" t="s">
@@ -1197,7 +1210,7 @@
       <c r="K11" t="s">
         <v>9</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M11" t="s">

--- a/Data/About Herbs/tabs.xlsx
+++ b/Data/About Herbs/tabs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yingxuan/Documents/SUTD/UROP OncoRx/Data/About Herbs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C252F6-431A-4947-8617-55761DE42C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83403C66-0A53-E94E-9CEF-F047A001360D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="31600" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +150,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -192,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -206,6 +213,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +555,7 @@
   <dimension ref="A1:X276"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -673,31 +681,31 @@
       <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="P2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="T2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="T2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="W2" t="s">
         <v>19</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
